--- a/Code/Results/Cases/Case_8_39/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_39/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025618638148723</v>
+        <v>1.021062800809101</v>
       </c>
       <c r="D2">
-        <v>1.043034300305374</v>
+        <v>1.038621455541672</v>
       </c>
       <c r="E2">
-        <v>1.037837612593409</v>
+        <v>1.034006427276902</v>
       </c>
       <c r="F2">
-        <v>1.046887731996228</v>
+        <v>1.043301221815886</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.059254964609138</v>
+        <v>1.05644490108952</v>
       </c>
       <c r="J2">
-        <v>1.047059197814605</v>
+        <v>1.042631273632894</v>
       </c>
       <c r="K2">
-        <v>1.053924968869573</v>
+        <v>1.049567728713404</v>
       </c>
       <c r="L2">
-        <v>1.048793824423485</v>
+        <v>1.045011487207886</v>
       </c>
       <c r="M2">
-        <v>1.057730322509202</v>
+        <v>1.054188545811986</v>
       </c>
       <c r="N2">
-        <v>1.04854614197487</v>
+        <v>1.033499861778043</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.054261939666571</v>
+        <v>1.051458907881418</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.049199818850575</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046127610259565</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025139458390691</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029083543673414</v>
+        <v>1.024264369052222</v>
       </c>
       <c r="D3">
-        <v>1.045392246854719</v>
+        <v>1.040718293625688</v>
       </c>
       <c r="E3">
-        <v>1.040515530157073</v>
+        <v>1.036455718625855</v>
       </c>
       <c r="F3">
-        <v>1.04945664143286</v>
+        <v>1.045659374963023</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.060197164543019</v>
+        <v>1.057217273178415</v>
       </c>
       <c r="J3">
-        <v>1.048811582664301</v>
+        <v>1.044114729995359</v>
       </c>
       <c r="K3">
-        <v>1.055475489033114</v>
+        <v>1.050855393293419</v>
       </c>
       <c r="L3">
-        <v>1.050654979780075</v>
+        <v>1.046642459380007</v>
       </c>
       <c r="M3">
-        <v>1.0594935308901</v>
+        <v>1.055739557003713</v>
       </c>
       <c r="N3">
-        <v>1.050301015412054</v>
+        <v>1.034331556745186</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.055657373608225</v>
+        <v>1.052686409947699</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.050293512941175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047035171990691</v>
+      </c>
+      <c r="S3">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T3">
+        <v>1.025387949921493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031289473226052</v>
+        <v>1.026303952021872</v>
       </c>
       <c r="D4">
-        <v>1.046897043925443</v>
+        <v>1.042057651153066</v>
       </c>
       <c r="E4">
-        <v>1.042226079150179</v>
+        <v>1.038021705195797</v>
       </c>
       <c r="F4">
-        <v>1.05109843135471</v>
+        <v>1.047167829643501</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.060788165832617</v>
+        <v>1.057700474667814</v>
       </c>
       <c r="J4">
-        <v>1.04992529793779</v>
+        <v>1.045057921098828</v>
       </c>
       <c r="K4">
-        <v>1.056460585740015</v>
+        <v>1.051673652777046</v>
       </c>
       <c r="L4">
-        <v>1.051840244944849</v>
+        <v>1.047681916674927</v>
       </c>
       <c r="M4">
-        <v>1.060616909218144</v>
+        <v>1.056728453656436</v>
       </c>
       <c r="N4">
-        <v>1.051416312288977</v>
+        <v>1.034860351013509</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.056546433524233</v>
+        <v>1.053469041994832</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.050990923404237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047614705984279</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025543615164761</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032211552721</v>
+        <v>1.027156628721799</v>
       </c>
       <c r="D5">
-        <v>1.04752870426614</v>
+        <v>1.042620288649776</v>
       </c>
       <c r="E5">
-        <v>1.04294292675122</v>
+        <v>1.038678215092184</v>
       </c>
       <c r="F5">
-        <v>1.051786737818829</v>
+        <v>1.047800503764555</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.061034490484678</v>
+        <v>1.05790175390967</v>
       </c>
       <c r="J5">
-        <v>1.050391816503516</v>
+        <v>1.045453169017671</v>
       </c>
       <c r="K5">
-        <v>1.056874356297366</v>
+        <v>1.052017756202288</v>
       </c>
       <c r="L5">
-        <v>1.052336970061362</v>
+        <v>1.048117731317471</v>
       </c>
       <c r="M5">
-        <v>1.061087918438385</v>
+        <v>1.057143303891522</v>
       </c>
       <c r="N5">
-        <v>1.051883493364576</v>
+        <v>1.035081943685976</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.056919197588853</v>
+        <v>1.053797362299056</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.051290548602057</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047865801773511</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025609054318627</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032369681731962</v>
+        <v>1.027302670691449</v>
       </c>
       <c r="D6">
-        <v>1.047639281211771</v>
+        <v>1.04271897603894</v>
       </c>
       <c r="E6">
-        <v>1.043066551167735</v>
+        <v>1.038791335781038</v>
       </c>
       <c r="F6">
-        <v>1.051905533132313</v>
+        <v>1.047909658303033</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.061078360468303</v>
+        <v>1.057937832726757</v>
       </c>
       <c r="J6">
-        <v>1.050473580928756</v>
+        <v>1.045522536179342</v>
       </c>
       <c r="K6">
-        <v>1.056948335021084</v>
+        <v>1.052079736924144</v>
       </c>
       <c r="L6">
-        <v>1.052423639831416</v>
+        <v>1.048193802289964</v>
       </c>
       <c r="M6">
-        <v>1.061170231148142</v>
+        <v>1.057215887935795</v>
       </c>
       <c r="N6">
-        <v>1.051965373904679</v>
+        <v>1.03512083380731</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.056984341136268</v>
+        <v>1.05385480666669</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.051351469686223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047919129374051</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02562144326094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031312028093621</v>
+        <v>1.02634193001829</v>
       </c>
       <c r="D7">
-        <v>1.046918381550865</v>
+        <v>1.042089938856563</v>
       </c>
       <c r="E7">
-        <v>1.042245262185911</v>
+        <v>1.03805416363747</v>
       </c>
       <c r="F7">
-        <v>1.051117050857399</v>
+        <v>1.047197164523399</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060798897360154</v>
+        <v>1.057719221111081</v>
       </c>
       <c r="J7">
-        <v>1.049941511188803</v>
+        <v>1.0450891399312</v>
       </c>
       <c r="K7">
-        <v>1.056478870681862</v>
+        <v>1.051702748413939</v>
       </c>
       <c r="L7">
-        <v>1.051856379417338</v>
+        <v>1.047711163100246</v>
       </c>
       <c r="M7">
-        <v>1.060632522234</v>
+        <v>1.056754650855074</v>
       </c>
       <c r="N7">
-        <v>1.051432548564665</v>
+        <v>1.03492940718853</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.056558789912121</v>
+        <v>1.053489774956392</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.051023664045311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047657136344092</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025552864605498</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.026809965641376</v>
+        <v>1.022217363758947</v>
       </c>
       <c r="D8">
-        <v>1.043851513703886</v>
+        <v>1.039388246681373</v>
       </c>
       <c r="E8">
-        <v>1.038759289484334</v>
+        <v>1.034895936365033</v>
       </c>
       <c r="F8">
-        <v>1.047771897470681</v>
+        <v>1.044150773816898</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.059586474289168</v>
+        <v>1.056746502112388</v>
       </c>
       <c r="J8">
-        <v>1.047668055405096</v>
+        <v>1.04320014696046</v>
       </c>
       <c r="K8">
-        <v>1.054468527463442</v>
+        <v>1.050059856433324</v>
       </c>
       <c r="L8">
-        <v>1.049438639753651</v>
+        <v>1.045623089624743</v>
       </c>
       <c r="M8">
-        <v>1.058341432329087</v>
+        <v>1.054764147686527</v>
       </c>
       <c r="N8">
-        <v>1.049155864212977</v>
+        <v>1.033975066630939</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.054745582953445</v>
+        <v>1.051914451243723</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049606726377841</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046500472280997</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025243230744522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018573148662395</v>
+        <v>1.014625060363614</v>
       </c>
       <c r="D9">
-        <v>1.038261131589183</v>
+        <v>1.034430727259206</v>
       </c>
       <c r="E9">
-        <v>1.03242473091565</v>
+        <v>1.029119929399166</v>
       </c>
       <c r="F9">
-        <v>1.041699995277255</v>
+        <v>1.038592277829065</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.057292388059477</v>
+        <v>1.054863320762986</v>
       </c>
       <c r="J9">
-        <v>1.043486668204463</v>
+        <v>1.039671734004122</v>
       </c>
       <c r="K9">
-        <v>1.050762516591697</v>
+        <v>1.046988840432438</v>
       </c>
       <c r="L9">
-        <v>1.045012766488489</v>
+        <v>1.04175758490181</v>
       </c>
       <c r="M9">
-        <v>1.054150901819213</v>
+        <v>1.051088783523783</v>
       </c>
       <c r="N9">
-        <v>1.044968538962907</v>
+        <v>1.032015725550282</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.051429115628573</v>
+        <v>1.049005686405779</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046983272190683</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04432569060161</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024637391087855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012930773415849</v>
+        <v>1.009507772887953</v>
       </c>
       <c r="D10">
-        <v>1.034472004096759</v>
+        <v>1.031133974909372</v>
       </c>
       <c r="E10">
-        <v>1.028142347665393</v>
+        <v>1.025291021938029</v>
       </c>
       <c r="F10">
-        <v>1.037631210300665</v>
+        <v>1.034933148633635</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.055696338265609</v>
+        <v>1.053589816692634</v>
       </c>
       <c r="J10">
-        <v>1.040640585328317</v>
+        <v>1.037349177732745</v>
       </c>
       <c r="K10">
-        <v>1.0482455528758</v>
+        <v>1.044962963760968</v>
       </c>
       <c r="L10">
-        <v>1.042021417735729</v>
+        <v>1.039218175536857</v>
       </c>
       <c r="M10">
-        <v>1.051352711498443</v>
+        <v>1.048699074618237</v>
       </c>
       <c r="N10">
-        <v>1.042118414322627</v>
+        <v>1.030943638443057</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.049265339055004</v>
+        <v>1.047165313435951</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.045220255417567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042911596500339</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024241815535422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.010885336428528</v>
+        <v>1.007726722454473</v>
       </c>
       <c r="D11">
-        <v>1.033241445967725</v>
+        <v>1.030129391438321</v>
       </c>
       <c r="E11">
-        <v>1.026789017615165</v>
+        <v>1.024163051072435</v>
       </c>
       <c r="F11">
-        <v>1.03659604691166</v>
+        <v>1.03409686573425</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.05525654636658</v>
+        <v>1.053303319951819</v>
       </c>
       <c r="J11">
-        <v>1.039812180857376</v>
+        <v>1.036781556419202</v>
       </c>
       <c r="K11">
-        <v>1.047562572421836</v>
+        <v>1.044504633187522</v>
       </c>
       <c r="L11">
-        <v>1.041222818056075</v>
+        <v>1.038643234137611</v>
       </c>
       <c r="M11">
-        <v>1.050859310851645</v>
+        <v>1.048403191179232</v>
       </c>
       <c r="N11">
-        <v>1.041288833422318</v>
+        <v>1.031064693640209</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.049305697695574</v>
+        <v>1.047362937924892</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.04476978735708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042623229885226</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024210217053246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.010277325264479</v>
+        <v>1.007187178103411</v>
       </c>
       <c r="D12">
-        <v>1.03293188102338</v>
+        <v>1.029876185903174</v>
       </c>
       <c r="E12">
-        <v>1.026471464730637</v>
+        <v>1.023901462508883</v>
       </c>
       <c r="F12">
-        <v>1.036478584780902</v>
+        <v>1.034030086974989</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.055185645553907</v>
+        <v>1.053271628693961</v>
       </c>
       <c r="J12">
-        <v>1.039653010319083</v>
+        <v>1.036690447871573</v>
       </c>
       <c r="K12">
-        <v>1.047454232495605</v>
+        <v>1.044452547895961</v>
       </c>
       <c r="L12">
-        <v>1.041108498323948</v>
+        <v>1.038584640478566</v>
       </c>
       <c r="M12">
-        <v>1.050938764120856</v>
+        <v>1.048533128312931</v>
       </c>
       <c r="N12">
-        <v>1.041129436843603</v>
+        <v>1.031204555707359</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.049691280228274</v>
+        <v>1.047789083411112</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.044693189378008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042586405354221</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024236533937368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.010749879372768</v>
+        <v>1.00756897385797</v>
       </c>
       <c r="D13">
-        <v>1.03332823305883</v>
+        <v>1.030193113776565</v>
       </c>
       <c r="E13">
-        <v>1.026944266553631</v>
+        <v>1.0242931982609</v>
       </c>
       <c r="F13">
-        <v>1.037080624840099</v>
+        <v>1.034563616597604</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.055408987138468</v>
+        <v>1.053442519360787</v>
       </c>
       <c r="J13">
-        <v>1.040015167220066</v>
+        <v>1.036964957027706</v>
       </c>
       <c r="K13">
-        <v>1.047801621826388</v>
+        <v>1.044721682891961</v>
       </c>
       <c r="L13">
-        <v>1.041530479139943</v>
+        <v>1.038926800044743</v>
       </c>
       <c r="M13">
-        <v>1.051488536529384</v>
+        <v>1.049015380703684</v>
       </c>
       <c r="N13">
-        <v>1.041492108048925</v>
+        <v>1.031316287195446</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.050399897339288</v>
+        <v>1.048444793651351</v>
       </c>
       <c r="Q13">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044936338961237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042773978482581</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024314581121286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.011571227595643</v>
+        <v>1.008258083470255</v>
       </c>
       <c r="D14">
-        <v>1.03392703932724</v>
+        <v>1.030677600201955</v>
       </c>
       <c r="E14">
-        <v>1.027633757510725</v>
+        <v>1.024867369907933</v>
       </c>
       <c r="F14">
-        <v>1.037828827283127</v>
+        <v>1.035212603250089</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.055699090950841</v>
+        <v>1.053656233349298</v>
       </c>
       <c r="J14">
-        <v>1.040505407168473</v>
+        <v>1.037326475927016</v>
       </c>
       <c r="K14">
-        <v>1.048252469216757</v>
+        <v>1.045059520370478</v>
       </c>
       <c r="L14">
-        <v>1.04206901378182</v>
+        <v>1.039351457035192</v>
       </c>
       <c r="M14">
-        <v>1.052087030117776</v>
+        <v>1.04951581072109</v>
       </c>
       <c r="N14">
-        <v>1.041983044194291</v>
+        <v>1.031385083805175</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.051044814255152</v>
+        <v>1.049012459149231</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.045256500921401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043014378010211</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024394436130213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012012005560251</v>
+        <v>1.008633378236108</v>
       </c>
       <c r="D15">
-        <v>1.034234298569914</v>
+        <v>1.030928447397043</v>
       </c>
       <c r="E15">
-        <v>1.027981739341699</v>
+        <v>1.025158897612504</v>
       </c>
       <c r="F15">
-        <v>1.03818020865713</v>
+        <v>1.035514971154827</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.055838619216208</v>
+        <v>1.053757882375901</v>
       </c>
       <c r="J15">
-        <v>1.040745350695907</v>
+        <v>1.037502413608033</v>
       </c>
       <c r="K15">
-        <v>1.048469741168625</v>
+        <v>1.045220930250579</v>
       </c>
       <c r="L15">
-        <v>1.042325466160753</v>
+        <v>1.039552072410604</v>
       </c>
       <c r="M15">
-        <v>1.05234818130304</v>
+        <v>1.04972844307897</v>
       </c>
       <c r="N15">
-        <v>1.042223328469056</v>
+        <v>1.031404494639028</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.051288468104805</v>
+        <v>1.04921781649013</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.045415908525428</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043134869810507</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024428508545071</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.014312360613221</v>
+        <v>1.010626784892008</v>
       </c>
       <c r="D16">
-        <v>1.035769093119892</v>
+        <v>1.03219709570186</v>
       </c>
       <c r="E16">
-        <v>1.029708707579711</v>
+        <v>1.026623714718014</v>
       </c>
       <c r="F16">
-        <v>1.039811853749325</v>
+        <v>1.036916308303436</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.056490168800372</v>
+        <v>1.05423042770351</v>
       </c>
       <c r="J16">
-        <v>1.041894407206984</v>
+        <v>1.03834957507098</v>
       </c>
       <c r="K16">
-        <v>1.049486350609704</v>
+        <v>1.045973332783186</v>
       </c>
       <c r="L16">
-        <v>1.043526343619365</v>
+        <v>1.040493034640969</v>
       </c>
       <c r="M16">
-        <v>1.053462986591086</v>
+        <v>1.05061473421624</v>
       </c>
       <c r="N16">
-        <v>1.043374016772177</v>
+        <v>1.031479760056389</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.052131213829972</v>
+        <v>1.04987988038812</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.046137794250287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043670265649676</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024566108569653</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.01564832775139</v>
+        <v>1.011810115055747</v>
       </c>
       <c r="D17">
-        <v>1.036633904320841</v>
+        <v>1.032926958295491</v>
       </c>
       <c r="E17">
-        <v>1.030673562117755</v>
+        <v>1.027458699237525</v>
       </c>
       <c r="F17">
-        <v>1.040668711263947</v>
+        <v>1.037657415895631</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.056835412558681</v>
+        <v>1.054485160897928</v>
       </c>
       <c r="J17">
-        <v>1.042518166864024</v>
+        <v>1.038821892858764</v>
       </c>
       <c r="K17">
-        <v>1.050028714499117</v>
+        <v>1.04638128077933</v>
       </c>
       <c r="L17">
-        <v>1.044164329875948</v>
+        <v>1.041001818217564</v>
       </c>
       <c r="M17">
-        <v>1.053999362654203</v>
+        <v>1.051035890350132</v>
       </c>
       <c r="N17">
-        <v>1.043998662239477</v>
+        <v>1.031558945237036</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.05242727442839</v>
+        <v>1.050084637954706</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046523809538535</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.04396150135929</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024631186088681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016265874566524</v>
+        <v>1.01237695272611</v>
       </c>
       <c r="D18">
-        <v>1.036981130704689</v>
+        <v>1.033228188513144</v>
       </c>
       <c r="E18">
-        <v>1.031048400971194</v>
+        <v>1.027791238980986</v>
       </c>
       <c r="F18">
-        <v>1.040900345694109</v>
+        <v>1.037849639637675</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.056937535479084</v>
+        <v>1.054556274316795</v>
       </c>
       <c r="J18">
-        <v>1.042728154309212</v>
+        <v>1.038980392535304</v>
       </c>
       <c r="K18">
-        <v>1.050190658160351</v>
+        <v>1.046496992722944</v>
       </c>
       <c r="L18">
-        <v>1.044351888275923</v>
+        <v>1.041146903437162</v>
       </c>
       <c r="M18">
-        <v>1.054048553372018</v>
+        <v>1.051045527363308</v>
       </c>
       <c r="N18">
-        <v>1.044208947890923</v>
+        <v>1.031566488123052</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.052230835162867</v>
+        <v>1.049856444842974</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.046626827953532</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.044030676646254</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024628649997774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016243495837166</v>
+        <v>1.012382647034813</v>
       </c>
       <c r="D19">
-        <v>1.036874528018882</v>
+        <v>1.033146659541577</v>
       </c>
       <c r="E19">
-        <v>1.030897176682801</v>
+        <v>1.027665603399331</v>
       </c>
       <c r="F19">
-        <v>1.040573254151001</v>
+        <v>1.037542999220485</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.056829943615197</v>
+        <v>1.054464712303726</v>
       </c>
       <c r="J19">
-        <v>1.042575456888343</v>
+        <v>1.038853936052633</v>
       </c>
       <c r="K19">
-        <v>1.050024433085087</v>
+        <v>1.046355145992745</v>
       </c>
       <c r="L19">
-        <v>1.044141275057392</v>
+        <v>1.040961211172553</v>
       </c>
       <c r="M19">
-        <v>1.053665565755784</v>
+        <v>1.050682456544974</v>
       </c>
       <c r="N19">
-        <v>1.044056033622201</v>
+        <v>1.031472687927658</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.05160618993245</v>
+        <v>1.049246791893979</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.046515612983463</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.043937334499436</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024567956794197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.014418556228249</v>
+        <v>1.010804888082523</v>
       </c>
       <c r="D20">
-        <v>1.035484642855963</v>
+        <v>1.031979390999439</v>
       </c>
       <c r="E20">
-        <v>1.029274958066819</v>
+        <v>1.02625886445842</v>
       </c>
       <c r="F20">
-        <v>1.038708872995334</v>
+        <v>1.035866257846005</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.056132269531682</v>
+        <v>1.053913799808518</v>
       </c>
       <c r="J20">
-        <v>1.041404762406343</v>
+        <v>1.037925560713085</v>
       </c>
       <c r="K20">
-        <v>1.048930971951509</v>
+        <v>1.045482300732325</v>
       </c>
       <c r="L20">
-        <v>1.042821860319358</v>
+        <v>1.039855180700838</v>
       </c>
       <c r="M20">
-        <v>1.052103589775038</v>
+        <v>1.049306456684122</v>
       </c>
       <c r="N20">
-        <v>1.042883676619756</v>
+        <v>1.03107377355427</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.049849158760457</v>
+        <v>1.04763554751429</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.045746382536061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.043324477675921</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024342729937239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.010102764786807</v>
+        <v>1.007133932015136</v>
       </c>
       <c r="D21">
-        <v>1.032565589841089</v>
+        <v>1.02961465318599</v>
       </c>
       <c r="E21">
-        <v>1.025973806403403</v>
+        <v>1.023516173145065</v>
       </c>
       <c r="F21">
-        <v>1.035525187967669</v>
+        <v>1.033167385330637</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.054866198482107</v>
+        <v>1.053020816807282</v>
       </c>
       <c r="J21">
-        <v>1.039184083166574</v>
+        <v>1.036336385124833</v>
       </c>
       <c r="K21">
-        <v>1.046955191304904</v>
+        <v>1.044055879300871</v>
       </c>
       <c r="L21">
-        <v>1.040479257571057</v>
+        <v>1.038065312658335</v>
       </c>
       <c r="M21">
-        <v>1.049863395586113</v>
+        <v>1.047546505655154</v>
       </c>
       <c r="N21">
-        <v>1.040659843760751</v>
+        <v>1.030984148468605</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04803588464872</v>
+        <v>1.046202238247438</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.044352651429973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.042319478438979</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024079013331933</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007357146999723</v>
+        <v>1.004778908612871</v>
       </c>
       <c r="D22">
-        <v>1.030716562020275</v>
+        <v>1.02810369115479</v>
       </c>
       <c r="E22">
-        <v>1.023891161399417</v>
+        <v>1.021772860338552</v>
       </c>
       <c r="F22">
-        <v>1.033533433013065</v>
+        <v>1.03147068612765</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.054056763144515</v>
+        <v>1.052437598136478</v>
       </c>
       <c r="J22">
-        <v>1.037777789692601</v>
+        <v>1.035310774096556</v>
       </c>
       <c r="K22">
-        <v>1.045703126707972</v>
+        <v>1.04313823692184</v>
       </c>
       <c r="L22">
-        <v>1.039003736151473</v>
+        <v>1.036924989918463</v>
       </c>
       <c r="M22">
-        <v>1.048468624053783</v>
+        <v>1.046443461413205</v>
       </c>
       <c r="N22">
-        <v>1.039251553188741</v>
+        <v>1.030876885268786</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.046932027058231</v>
+        <v>1.04532925900359</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.043454072755266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041656019172119</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023907786195284</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.008807879234217</v>
+        <v>1.006000417593285</v>
       </c>
       <c r="D23">
-        <v>1.031687931543967</v>
+        <v>1.028879519240557</v>
       </c>
       <c r="E23">
-        <v>1.02498910978271</v>
+        <v>1.02267135605337</v>
       </c>
       <c r="F23">
-        <v>1.034583372157308</v>
+        <v>1.032348419830851</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.054481403966018</v>
+        <v>1.052730739963198</v>
       </c>
       <c r="J23">
-        <v>1.038516703962256</v>
+        <v>1.03582686061977</v>
       </c>
       <c r="K23">
-        <v>1.046357837253009</v>
+        <v>1.043599700369582</v>
       </c>
       <c r="L23">
-        <v>1.039779528027648</v>
+        <v>1.037503949476503</v>
       </c>
       <c r="M23">
-        <v>1.04920181518441</v>
+        <v>1.047006553232751</v>
       </c>
       <c r="N23">
-        <v>1.039991516801413</v>
+        <v>1.03084915098397</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.047512293333135</v>
+        <v>1.045774905329551</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.043907455486775</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041971816646436</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023989140873476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.014431468325308</v>
+        <v>1.010819752340954</v>
       </c>
       <c r="D24">
-        <v>1.035472225386406</v>
+        <v>1.031968410794311</v>
       </c>
       <c r="E24">
-        <v>1.029263513976273</v>
+        <v>1.026249316605238</v>
       </c>
       <c r="F24">
-        <v>1.038673091638297</v>
+        <v>1.035831758437446</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.056115705028559</v>
+        <v>1.053898189754328</v>
       </c>
       <c r="J24">
-        <v>1.041385088941223</v>
+        <v>1.03790757349098</v>
       </c>
       <c r="K24">
-        <v>1.048903785297297</v>
+        <v>1.045456457567005</v>
       </c>
       <c r="L24">
-        <v>1.04279550581074</v>
+        <v>1.039830629494377</v>
       </c>
       <c r="M24">
-        <v>1.052053475549571</v>
+        <v>1.049257549850211</v>
       </c>
       <c r="N24">
-        <v>1.042863975216058</v>
+        <v>1.031055837603747</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.049769166200145</v>
+        <v>1.047556403159199</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.045700113894565</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043276436174636</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024330644581155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0207544596607</v>
+        <v>1.016611316139677</v>
       </c>
       <c r="D25">
-        <v>1.039746905333103</v>
+        <v>1.035731724667752</v>
       </c>
       <c r="E25">
-        <v>1.034099497702382</v>
+        <v>1.03062589039088</v>
       </c>
       <c r="F25">
-        <v>1.043304610781566</v>
+        <v>1.040044018641545</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.057914785685106</v>
+        <v>1.055364659188023</v>
       </c>
       <c r="J25">
-        <v>1.044602987173606</v>
+        <v>1.04059228986337</v>
       </c>
       <c r="K25">
-        <v>1.051758015852591</v>
+        <v>1.047799565192415</v>
       </c>
       <c r="L25">
-        <v>1.046190559108269</v>
+        <v>1.042766679123023</v>
       </c>
       <c r="M25">
-        <v>1.055265915416098</v>
+        <v>1.052050953269712</v>
       </c>
       <c r="N25">
-        <v>1.04608644323303</v>
+        <v>1.032466607499089</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.052311560494063</v>
+        <v>1.049767170009991</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047715325894501</v>
+        <v>1.044929964916097</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024799481850396</v>
       </c>
     </row>
   </sheetData>
